--- a/data/trans_dic/P1804-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1804-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,12 +735,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,87; 10,1</t>
+          <t>4,94; 9,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,91; 11,33</t>
+          <t>5,9; 10,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +755,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,58; 17,45</t>
+          <t>9,38; 17,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,64; 13,8</t>
+          <t>8,83; 13,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +775,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,93; 12,44</t>
+          <t>7,98; 12,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,79; 11,46</t>
+          <t>7,73; 11,39</t>
         </is>
       </c>
     </row>
@@ -874,12 +875,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 7,44</t>
+          <t>2,86; 7,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,26; 12,65</t>
+          <t>6,48; 12,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +895,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,26; 14,05</t>
+          <t>7,44; 14,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,24; 14,26</t>
+          <t>8,33; 14,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +915,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,66; 9,87</t>
+          <t>5,68; 9,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 12,25</t>
+          <t>8,06; 12,3</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1015,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,65</t>
+          <t>4,37; 8,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 8,13</t>
+          <t>1,35; 7,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1035,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,53; 17,53</t>
+          <t>7,59; 18,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,58; 15,09</t>
+          <t>5,53; 14,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1055,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,85; 10,11</t>
+          <t>5,88; 10,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 8,37</t>
+          <t>1,99; 8,35</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1155,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,55; 8,55</t>
+          <t>5,69; 8,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,89; 5,52</t>
+          <t>2,92; 5,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,12 +1175,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,15; 12,47</t>
+          <t>8,26; 12,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,26; 8,69</t>
+          <t>3,13; 8,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1194,12 +1195,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,08; 9,58</t>
+          <t>7,05; 9,63</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,56; 6,47</t>
+          <t>3,68; 6,49</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1295,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,06; 7,77</t>
+          <t>4,21; 7,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,86; 9,25</t>
+          <t>3,98; 8,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1314,12 +1315,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,68; 12,14</t>
+          <t>7,77; 12,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,33; 9,22</t>
+          <t>5,22; 9,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1334,12 +1335,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,58; 9,65</t>
+          <t>6,51; 9,41</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,33; 8,54</t>
+          <t>5,21; 8,26</t>
         </is>
       </c>
     </row>
@@ -1434,12 +1435,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,45; 8,77</t>
+          <t>3,3; 8,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,27; 4,39</t>
+          <t>0,33; 6,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,12 +1455,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,64; 10,48</t>
+          <t>6,61; 10,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,13</t>
+          <t>3,76; 6,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,12 +1475,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,38; 9,7</t>
+          <t>6,41; 9,41</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,12; 5,34</t>
+          <t>3,1; 5,2</t>
         </is>
       </c>
     </row>
@@ -1574,12 +1575,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,54; 7,18</t>
+          <t>5,56; 7,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,4; 6,58</t>
+          <t>4,2; 6,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1594,12 +1595,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,89; 11,03</t>
+          <t>8,95; 11,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,97; 8,42</t>
+          <t>6,2; 8,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1614,12 +1615,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,53; 8,91</t>
+          <t>7,55; 8,91</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,57; 7,27</t>
+          <t>5,52; 7,25</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>30763</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>41327</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>46006</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>49074</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>76769</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>90402</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1995</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2072</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21210; 42776</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>29820; 55111</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1969</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2125</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>32543; 61673</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>39480; 61387</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1988</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2098</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>61942; 95777</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>73658; 108520</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>17737</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>40996</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>38696</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>42048</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>56433</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>83044</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2007</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2138</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10792; 28126</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>29316; 57319</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1961</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2120</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>27688; 53706</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>31876; 55681</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1987</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2134</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>42557; 73025</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>67248; 102663</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>32851</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>30255</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>19783</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14977</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>52634</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>45232</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1954</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2041</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>22820; 44378</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9051; 52354</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1951</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2038</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12606; 31044</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9237; 24928</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1956</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>40481; 68946</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16657; 69719</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>80282</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>42112</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>84030</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>62909</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>164312</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>105021</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1941</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2053</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>65388; 100923</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>30201; 58386</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1973</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2068</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>68217; 101999</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>30625; 85626</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1954</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2060</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>139305; 190323</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>73952; 130623</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>35629</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>28711</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>71871</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>61651</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>107500</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>90362</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1973</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2009</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>26117; 49389</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>18887; 42594</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2022</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2077</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>57385; 89781</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>43958; 78453</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2006</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2051</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>88521; 127825</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>68630; 108772</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>16427</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3680</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>91524</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>36397</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>107951</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>40077</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1864</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1926</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>9473; 25394</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>782; 15081</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1936</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2039</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>71493; 114100</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>28503; 47164</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1923</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2018</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>87727; 128772</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>30977; 51963</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>213690</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>187080</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>351909</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>267056</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>565599</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>454136</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1958</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2050</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>188213; 244132</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>141796; 219967</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2072</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>316031; 389572</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>221546; 304382</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2061</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>522391; 616015</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>383973; 503932</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P1804-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1804-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
